--- a/results/03-2024/contributions-comparison-03-2024.xlsx
+++ b/results/03-2024/contributions-comparison-03-2024.xlsx
@@ -623,7 +623,7 @@
         <v>0.0064</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0045</v>
+        <v>0.0044</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -657,13 +657,13 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>0.0046</v>
+        <v>0.0074</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="R3" t="n">
         <v>0.0055</v>
@@ -873,7 +873,7 @@
         <v>-0.029</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0281</v>
+        <v>-0.028</v>
       </c>
       <c r="T7" t="n">
         <v>-0.0264</v>
@@ -929,7 +929,7 @@
         <v>-0.0421</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2947</v>
+        <v>0.1538</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -963,31 +963,31 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>-0.2553</v>
+        <v>-0.2559</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4625</v>
+        <v>-0.4623</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0666</v>
+        <v>-0.0669</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.083</v>
+        <v>-0.0832</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4212</v>
+        <v>-0.4215</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.2973</v>
+        <v>-0.2976</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1303</v>
+        <v>-0.1307</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.166</v>
+        <v>-0.1664</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.9434</v>
+        <v>-1.9431</v>
       </c>
     </row>
     <row r="10">
@@ -1031,7 +1031,7 @@
         <v>0.3088</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2804</v>
+        <v>0.2796</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -1065,31 +1065,31 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.1638</v>
+        <v>0.16</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1183</v>
+        <v>-0.1199</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2381</v>
+        <v>-0.2378</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2242</v>
+        <v>-0.2232</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2846</v>
+        <v>-0.2835</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2202</v>
+        <v>-0.2191</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1713</v>
+        <v>-0.1703</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0359</v>
+        <v>-0.035</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.7425</v>
+        <v>-0.7412</v>
       </c>
     </row>
     <row r="12">
@@ -1133,7 +1133,7 @@
         <v>-0.2751</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1625</v>
+        <v>-0.1622</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -1167,31 +1167,31 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13" t="n">
-        <v>-0.2623</v>
+        <v>-0.2326</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2571</v>
+        <v>-0.2193</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0697</v>
+        <v>-0.0199</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.1072</v>
+        <v>-0.0569</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0109</v>
+        <v>0.0123</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0136</v>
+        <v>0.0299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0369</v>
+        <v>0.0425</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0515</v>
+        <v>0.056</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0668</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="14">
@@ -1235,7 +1235,7 @@
         <v>0.3669</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3655</v>
+        <v>0.3659</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -1269,31 +1269,31 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0.2297</v>
+        <v>0.2453</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1811</v>
+        <v>0.2073</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3253</v>
+        <v>0.3473</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2391</v>
+        <v>0.2554</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1013</v>
+        <v>-0.0867</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.1198</v>
+        <v>-0.1053</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0931</v>
+        <v>-0.079</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0867</v>
+        <v>-0.073</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0102</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="16">
@@ -1479,13 +1479,13 @@
         <v>-0.0488</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0432</v>
+        <v>-0.0433</v>
       </c>
       <c r="R19" t="n">
         <v>-0.0257</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0102</v>
+        <v>-0.0103</v>
       </c>
       <c r="T19" t="n">
         <v>-0.0098</v>
@@ -1541,7 +1541,7 @@
         <v>0.0098</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01</v>
+        <v>0.0098</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -1643,7 +1643,7 @@
         <v>0.0114</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.1543</v>
+        <v>-0.1481</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
@@ -1677,31 +1677,31 @@
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23" t="n">
-        <v>-0.1614</v>
+        <v>-0.173</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0594</v>
+        <v>-0.0803</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0121</v>
+        <v>-0.036</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0002</v>
+        <v>-0.0298</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.044</v>
+        <v>-0.0563</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0481</v>
+        <v>-0.0513</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0504</v>
+        <v>-0.0506</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1048</v>
+        <v>-0.105</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.302</v>
+        <v>-6.3047</v>
       </c>
     </row>
     <row r="24">
@@ -1847,7 +1847,7 @@
         <v>-0.3432</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.1407</v>
+        <v>-0.1408</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
@@ -1881,31 +1881,31 @@
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27" t="n">
-        <v>-0.1034</v>
+        <v>-0.1035</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.2904</v>
+        <v>-0.2906</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2614</v>
+        <v>-0.2615</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1046</v>
+        <v>-0.1048</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0568</v>
+        <v>-0.057</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0915</v>
+        <v>-0.0917</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0676</v>
+        <v>-0.0677</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0296</v>
+        <v>-0.0298</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0777</v>
+        <v>-0.0778</v>
       </c>
     </row>
     <row r="28">
@@ -2051,7 +2051,7 @@
         <v>0.5287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1869</v>
+        <v>0.2312</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
@@ -2085,31 +2085,31 @@
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>-0.4043</v>
+        <v>-0.2678</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.7993</v>
+        <v>-0.6669</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.6397</v>
+        <v>-0.4807</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.3742</v>
+        <v>-0.2571</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.82</v>
+        <v>-0.8043</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.8363</v>
+        <v>-0.8209</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5322</v>
+        <v>-0.5283</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3685</v>
+        <v>-0.3389</v>
       </c>
       <c r="W31" t="n">
-        <v>-50.6121</v>
+        <v>-50.7598</v>
       </c>
     </row>
     <row r="32">
@@ -2153,7 +2153,7 @@
         <v>27610.1</v>
       </c>
       <c r="N32" t="n">
-        <v>27944.6</v>
+        <v>27957</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
@@ -2187,31 +2187,31 @@
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>28264.1826</v>
+        <v>28276.7244</v>
       </c>
       <c r="P33" t="n">
-        <v>28601.9138</v>
+        <v>28614.6055</v>
       </c>
       <c r="Q33" t="n">
-        <v>28946.529</v>
+        <v>28959.3736</v>
       </c>
       <c r="R33" t="n">
-        <v>29303.3476</v>
+        <v>29316.3505</v>
       </c>
       <c r="S33" t="n">
-        <v>29666.9459</v>
+        <v>29680.1101</v>
       </c>
       <c r="T33" t="n">
-        <v>30021.887</v>
+        <v>30035.2088</v>
       </c>
       <c r="U33" t="n">
-        <v>30371.8216</v>
+        <v>30385.2987</v>
       </c>
       <c r="V33" t="n">
-        <v>30709.2399</v>
+        <v>30722.8667</v>
       </c>
       <c r="W33" t="n">
-        <v>31046.8669</v>
+        <v>31060.6435</v>
       </c>
     </row>
     <row r="34">
@@ -2255,7 +2255,7 @@
         <v>-0.3502</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.2978</v>
+        <v>0.1455</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -2289,31 +2289,31 @@
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>-0.1183</v>
+        <v>-0.119</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.3518</v>
+        <v>-0.3516</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0102</v>
+        <v>-0.0106</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0156</v>
+        <v>0.0153</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3044</v>
+        <v>-0.3047</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1891</v>
+        <v>-0.1895</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0358</v>
+        <v>-0.0363</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0869</v>
+        <v>-0.0874</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.6968</v>
+        <v>-1.6966</v>
       </c>
     </row>
     <row r="36">
@@ -2499,16 +2499,16 @@
         <v>-0.1051</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.102</v>
+        <v>-0.1019</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.0999</v>
+        <v>-0.0998</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.0968</v>
+        <v>-0.0967</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.0938</v>
+        <v>-0.0937</v>
       </c>
       <c r="U39" t="n">
         <v>-0.001</v>
@@ -2663,7 +2663,7 @@
         <v>0.6465</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6308</v>
+        <v>0.2484</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
@@ -2697,31 +2697,31 @@
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43" t="n">
-        <v>0.0461</v>
+        <v>0.0996</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3614</v>
+        <v>0.3612</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.065</v>
+        <v>-0.0437</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.0943</v>
+        <v>-0.0625</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2326</v>
+        <v>0.2327</v>
       </c>
       <c r="T43" t="n">
-        <v>0.121</v>
+        <v>0.1212</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0294</v>
+        <v>-0.0292</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0159</v>
+        <v>0.0161</v>
       </c>
       <c r="W43" t="n">
-        <v>-41.5341</v>
+        <v>-41.6959</v>
       </c>
     </row>
     <row r="44">
@@ -2765,7 +2765,7 @@
         <v>-0.0209</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.018</v>
+        <v>-0.027</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -2799,31 +2799,31 @@
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>-0.0163</v>
+        <v>-0.016</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.0125</v>
+        <v>-0.0121</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.005</v>
+        <v>-0.0046</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0117</v>
+        <v>0.0121</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0258</v>
+        <v>0.0263</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0055</v>
+        <v>0.0059</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0106</v>
+        <v>0.011</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0154</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="46">
@@ -2867,7 +2867,7 @@
         <v>0.219</v>
       </c>
       <c r="N46" t="n">
-        <v>0.017</v>
+        <v>0.0574</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
@@ -2901,31 +2901,31 @@
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47" t="n">
-        <v>0.0491</v>
+        <v>0.1506</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0678</v>
+        <v>0.0366</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.1386</v>
+        <v>-0.0311</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0267</v>
+        <v>0.0947</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0564</v>
+        <v>-0.0475</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0342</v>
+        <v>-0.0287</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0129</v>
+        <v>-0.0114</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.0064</v>
+        <v>-0.0048</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0002</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="48">
@@ -2969,7 +2969,7 @@
         <v>0.1954</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1982</v>
+        <v>0.1388</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
@@ -3003,31 +3003,31 @@
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49" t="n">
-        <v>0.2155</v>
+        <v>0.1693</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1739</v>
+        <v>0.163</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1286</v>
+        <v>0.1135</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0951</v>
+        <v>0.0774</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0543</v>
+        <v>0.0358</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.0199</v>
+        <v>-0.0382</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0079</v>
+        <v>-0.0102</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.0105</v>
+        <v>-0.0014</v>
       </c>
       <c r="W49" t="n">
-        <v>-0.0056</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="50">
@@ -3071,7 +3071,7 @@
         <v>0.0141</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
@@ -3411,25 +3411,25 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>-0.0011</v>
+        <v>-0.0013</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0064</v>
+        <v>0.0061</v>
       </c>
       <c r="R57" t="n">
-        <v>0.006</v>
+        <v>0.0057</v>
       </c>
       <c r="S57" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="T57" t="n">
         <v>0.0061</v>
       </c>
-      <c r="T57" t="n">
-        <v>0.0062</v>
-      </c>
       <c r="U57" t="n">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
       <c r="V57" t="n">
         <v>0.0024</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -3513,13 +3513,13 @@
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>0.4485</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -3819,31 +3819,31 @@
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="66">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -3921,31 +3921,31 @@
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>-0.0038</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>-0.0017</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="68">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -4023,31 +4023,31 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>0.0296</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.0378</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>0.0497</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>0.0503</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>0.0233</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>0.0056</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="70">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
@@ -4125,31 +4125,31 @@
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>0.0155</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.0262</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>0.0146</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>0.0141</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="72">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
@@ -4533,31 +4533,31 @@
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>-0.0115</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>-0.0209</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>-0.0239</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>-0.0296</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>-0.0123</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="80">
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
@@ -4737,31 +4737,31 @@
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="U83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="84">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>0.0443</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
@@ -4941,31 +4941,31 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>0.1365</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>0.1324</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.1589</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>0.1171</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.0154</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>0.0295</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>-0.1477</v>
       </c>
     </row>
     <row r="88">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
@@ -5043,31 +5043,31 @@
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>12.5418</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>12.6917</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>12.8446</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>13.0029</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>13.1643</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>13.3218</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>13.477</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>13.6268</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>13.7766</v>
       </c>
     </row>
     <row r="90">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>0.4433</v>
       </c>
       <c r="O90"/>
       <c r="P90"/>
@@ -5145,31 +5145,31 @@
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="92">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>-0.3824</v>
       </c>
       <c r="O98"/>
       <c r="P98"/>
@@ -5553,31 +5553,31 @@
       <c r="M99"/>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>0.0535</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>-0.1618</v>
       </c>
     </row>
     <row r="100">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>-0.0091</v>
       </c>
       <c r="O100"/>
       <c r="P100"/>
@@ -5655,31 +5655,31 @@
       <c r="M101"/>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="102">
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>0.0405</v>
       </c>
       <c r="O102"/>
       <c r="P102"/>
@@ -5757,31 +5757,31 @@
       <c r="M103"/>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>0.1015</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>0.1043</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>0.1076</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="104">
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>-0.0594</v>
       </c>
       <c r="O104"/>
       <c r="P104"/>
@@ -5859,31 +5859,31 @@
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>-0.0462</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>-0.0109</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>-0.0151</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>-0.0177</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>-0.0185</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>-0.0183</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>-0.0181</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="106">
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="O106"/>
       <c r="P106"/>
@@ -6267,28 +6267,28 @@
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>

--- a/results/03-2024/contributions-comparison-03-2024.xlsx
+++ b/results/03-2024/contributions-comparison-03-2024.xlsx
@@ -1065,31 +1065,31 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.16</v>
+        <v>0.1591</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1199</v>
+        <v>-0.1208</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2378</v>
+        <v>-0.2387</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.2232</v>
+        <v>-0.2241</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2835</v>
+        <v>-0.2844</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.2191</v>
+        <v>-0.22</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.1703</v>
+        <v>-0.1712</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.035</v>
+        <v>-0.0359</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.7412</v>
+        <v>-0.7421</v>
       </c>
     </row>
     <row r="12">
@@ -2085,31 +2085,31 @@
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>-0.2678</v>
+        <v>-0.2729</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.6669</v>
+        <v>-0.6719</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.4807</v>
+        <v>-0.4857</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2571</v>
+        <v>-0.262</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.8043</v>
+        <v>-0.8091</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.8209</v>
+        <v>-0.8256</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.5283</v>
+        <v>-0.533</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3389</v>
+        <v>-0.3436</v>
       </c>
       <c r="W31" t="n">
-        <v>-50.7598</v>
+        <v>-50.7644</v>
       </c>
     </row>
     <row r="32">
@@ -2799,31 +2799,31 @@
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45" t="n">
-        <v>-0.016</v>
+        <v>-0.0202</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.0121</v>
+        <v>-0.0162</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0046</v>
+        <v>-0.0086</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0121</v>
+        <v>0.0081</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0263</v>
+        <v>0.0223</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0059</v>
+        <v>0.002</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006</v>
+        <v>0.0021</v>
       </c>
       <c r="V45" t="n">
-        <v>0.011</v>
+        <v>0.0072</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0157</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="46">
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -3513,13 +3513,13 @@
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59" t="n">
-        <v>0.0028</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.4485</v>
+        <v>0</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -3819,31 +3819,31 @@
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>-0.0006</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.0008</v>
+        <v>0</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -3921,31 +3921,31 @@
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>-0.0038</v>
+        <v>-0.0009</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0017</v>
+        <v>-0.0009</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0002</v>
+        <v>-0.0009</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0011</v>
+        <v>-0.0009</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0011</v>
+        <v>-0.0009</v>
       </c>
       <c r="T67" t="n">
-        <v>0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="U67" t="n">
-        <v>0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0012</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="68">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -4023,31 +4023,31 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69" t="n">
-        <v>0.0296</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0378</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0497</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0503</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0.0233</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
@@ -4125,31 +4125,31 @@
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71" t="n">
-        <v>0.0155</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0262</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.0146</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0144</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0137</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0063</v>
+        <v>0</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
@@ -4533,31 +4533,31 @@
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79" t="n">
-        <v>-0.0115</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.0209</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0239</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0296</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.0123</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.0032</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>-0.0027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
@@ -4737,31 +4737,31 @@
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0443</v>
+        <v>0</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
@@ -4941,31 +4941,31 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>0.1365</v>
+        <v>-0.0051</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1324</v>
+        <v>-0.005</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1589</v>
+        <v>-0.0049</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1171</v>
+        <v>-0.0049</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0157</v>
+        <v>-0.0048</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0154</v>
+        <v>-0.0047</v>
       </c>
       <c r="U87" t="n">
-        <v>0.0039</v>
+        <v>-0.0047</v>
       </c>
       <c r="V87" t="n">
-        <v>0.0295</v>
+        <v>-0.0046</v>
       </c>
       <c r="W87" t="n">
-        <v>-0.1477</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="88">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
@@ -5043,31 +5043,31 @@
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>12.5418</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>12.6917</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>12.8446</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>13.0029</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>13.1643</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>13.3218</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>13.477</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>13.6268</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>13.7766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4433</v>
+        <v>0</v>
       </c>
       <c r="O90"/>
       <c r="P90"/>
@@ -5145,31 +5145,31 @@
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>-0.0007</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.3824</v>
+        <v>0</v>
       </c>
       <c r="O98"/>
       <c r="P98"/>
@@ -5553,31 +5553,31 @@
       <c r="M99"/>
       <c r="N99"/>
       <c r="O99" t="n">
-        <v>0.0535</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0318</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>-0.1618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>-0.0091</v>
+        <v>0</v>
       </c>
       <c r="O100"/>
       <c r="P100"/>
@@ -5655,31 +5655,31 @@
       <c r="M101"/>
       <c r="N101"/>
       <c r="O101" t="n">
-        <v>0.0003</v>
+        <v>-0.0042</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0004</v>
+        <v>-0.0041</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0004</v>
+        <v>-0.0041</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0004</v>
+        <v>-0.004</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0004</v>
+        <v>-0.0039</v>
       </c>
       <c r="T101" t="n">
-        <v>0.0004</v>
+        <v>-0.0039</v>
       </c>
       <c r="U101" t="n">
-        <v>0.0004</v>
+        <v>-0.0038</v>
       </c>
       <c r="V101" t="n">
-        <v>0.0004</v>
+        <v>-0.0038</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0004</v>
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="102">
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0405</v>
+        <v>0</v>
       </c>
       <c r="O102"/>
       <c r="P102"/>
@@ -5757,31 +5757,31 @@
       <c r="M103"/>
       <c r="N103"/>
       <c r="O103" t="n">
-        <v>0.1015</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>0.1043</v>
+        <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>-0.0594</v>
+        <v>0</v>
       </c>
       <c r="O104"/>
       <c r="P104"/>
@@ -5859,31 +5859,31 @@
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105" t="n">
-        <v>-0.0462</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.0109</v>
+        <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.0151</v>
+        <v>0</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.0177</v>
+        <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.0185</v>
+        <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>-0.0183</v>
+        <v>0</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.0181</v>
+        <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>0.0091</v>
+        <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="O106"/>
       <c r="P106"/>
@@ -6267,28 +6267,28 @@
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="V113" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0.0064</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0045</v>
+        <v>0.0044</v>
       </c>
       <c r="O114"/>
       <c r="P114"/>
@@ -6369,13 +6369,13 @@
       <c r="M115"/>
       <c r="N115"/>
       <c r="O115" t="n">
-        <v>0.0046</v>
+        <v>0.0074</v>
       </c>
       <c r="P115" t="n">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="R115" t="n">
         <v>0.0055</v>
@@ -6585,7 +6585,7 @@
         <v>-0.029</v>
       </c>
       <c r="S119" t="n">
-        <v>-0.0281</v>
+        <v>-0.028</v>
       </c>
       <c r="T119" t="n">
         <v>-0.0264</v>
@@ -6641,7 +6641,7 @@
         <v>-0.0421</v>
       </c>
       <c r="N120" t="n">
-        <v>-0.2947</v>
+        <v>0.1538</v>
       </c>
       <c r="O120"/>
       <c r="P120"/>
@@ -6675,31 +6675,31 @@
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121" t="n">
-        <v>-0.2553</v>
+        <v>-0.2559</v>
       </c>
       <c r="P121" t="n">
-        <v>-0.4625</v>
+        <v>-0.4623</v>
       </c>
       <c r="Q121" t="n">
-        <v>-0.0666</v>
+        <v>-0.0669</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.083</v>
+        <v>-0.0832</v>
       </c>
       <c r="S121" t="n">
-        <v>-0.4212</v>
+        <v>-0.4215</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.2973</v>
+        <v>-0.2976</v>
       </c>
       <c r="U121" t="n">
-        <v>-0.1303</v>
+        <v>-0.1307</v>
       </c>
       <c r="V121" t="n">
-        <v>-0.166</v>
+        <v>-0.1664</v>
       </c>
       <c r="W121" t="n">
-        <v>-1.9434</v>
+        <v>-1.9431</v>
       </c>
     </row>
     <row r="122">
@@ -6743,7 +6743,7 @@
         <v>0.3088</v>
       </c>
       <c r="N122" t="n">
-        <v>0.2804</v>
+        <v>0.2796</v>
       </c>
       <c r="O122"/>
       <c r="P122"/>
@@ -6777,31 +6777,31 @@
       <c r="M123"/>
       <c r="N123"/>
       <c r="O123" t="n">
-        <v>0.1638</v>
+        <v>0.16</v>
       </c>
       <c r="P123" t="n">
-        <v>-0.1183</v>
+        <v>-0.1199</v>
       </c>
       <c r="Q123" t="n">
-        <v>-0.2381</v>
+        <v>-0.2378</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.2242</v>
+        <v>-0.2232</v>
       </c>
       <c r="S123" t="n">
-        <v>-0.2846</v>
+        <v>-0.2835</v>
       </c>
       <c r="T123" t="n">
-        <v>-0.2202</v>
+        <v>-0.2191</v>
       </c>
       <c r="U123" t="n">
-        <v>-0.1713</v>
+        <v>-0.1703</v>
       </c>
       <c r="V123" t="n">
-        <v>-0.0359</v>
+        <v>-0.035</v>
       </c>
       <c r="W123" t="n">
-        <v>-0.7425</v>
+        <v>-0.7412</v>
       </c>
     </row>
     <row r="124">
@@ -6845,7 +6845,7 @@
         <v>-0.2751</v>
       </c>
       <c r="N124" t="n">
-        <v>-0.1625</v>
+        <v>-0.1622</v>
       </c>
       <c r="O124"/>
       <c r="P124"/>
@@ -6879,31 +6879,31 @@
       <c r="M125"/>
       <c r="N125"/>
       <c r="O125" t="n">
-        <v>-0.2623</v>
+        <v>-0.2326</v>
       </c>
       <c r="P125" t="n">
-        <v>-0.2571</v>
+        <v>-0.2193</v>
       </c>
       <c r="Q125" t="n">
-        <v>-0.0697</v>
+        <v>-0.0199</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.1072</v>
+        <v>-0.0569</v>
       </c>
       <c r="S125" t="n">
-        <v>-0.0109</v>
+        <v>0.0123</v>
       </c>
       <c r="T125" t="n">
-        <v>0.0136</v>
+        <v>0.0299</v>
       </c>
       <c r="U125" t="n">
-        <v>0.0369</v>
+        <v>0.0425</v>
       </c>
       <c r="V125" t="n">
-        <v>0.0515</v>
+        <v>0.056</v>
       </c>
       <c r="W125" t="n">
-        <v>0.0668</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="126">
@@ -6947,7 +6947,7 @@
         <v>0.3669</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3655</v>
+        <v>0.3659</v>
       </c>
       <c r="O126"/>
       <c r="P126"/>
@@ -6981,31 +6981,31 @@
       <c r="M127"/>
       <c r="N127"/>
       <c r="O127" t="n">
-        <v>0.2297</v>
+        <v>0.2453</v>
       </c>
       <c r="P127" t="n">
-        <v>0.1811</v>
+        <v>0.2073</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.3253</v>
+        <v>0.3473</v>
       </c>
       <c r="R127" t="n">
-        <v>0.2391</v>
+        <v>0.2554</v>
       </c>
       <c r="S127" t="n">
-        <v>-0.1013</v>
+        <v>-0.0867</v>
       </c>
       <c r="T127" t="n">
-        <v>-0.1198</v>
+        <v>-0.1053</v>
       </c>
       <c r="U127" t="n">
-        <v>-0.0931</v>
+        <v>-0.079</v>
       </c>
       <c r="V127" t="n">
-        <v>-0.0867</v>
+        <v>-0.073</v>
       </c>
       <c r="W127" t="n">
-        <v>-0.0102</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="128">
@@ -7191,13 +7191,13 @@
         <v>-0.0488</v>
       </c>
       <c r="Q131" t="n">
-        <v>-0.0432</v>
+        <v>-0.0433</v>
       </c>
       <c r="R131" t="n">
         <v>-0.0257</v>
       </c>
       <c r="S131" t="n">
-        <v>-0.0102</v>
+        <v>-0.0103</v>
       </c>
       <c r="T131" t="n">
         <v>-0.0098</v>
@@ -7253,7 +7253,7 @@
         <v>0.0098</v>
       </c>
       <c r="N132" t="n">
-        <v>0.01</v>
+        <v>0.0098</v>
       </c>
       <c r="O132"/>
       <c r="P132"/>
@@ -7355,7 +7355,7 @@
         <v>0.0114</v>
       </c>
       <c r="N134" t="n">
-        <v>-0.1543</v>
+        <v>-0.1481</v>
       </c>
       <c r="O134"/>
       <c r="P134"/>
@@ -7389,31 +7389,31 @@
       <c r="M135"/>
       <c r="N135"/>
       <c r="O135" t="n">
-        <v>-0.1614</v>
+        <v>-0.173</v>
       </c>
       <c r="P135" t="n">
-        <v>-0.0594</v>
+        <v>-0.0803</v>
       </c>
       <c r="Q135" t="n">
-        <v>-0.0121</v>
+        <v>-0.036</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.0002</v>
+        <v>-0.0298</v>
       </c>
       <c r="S135" t="n">
-        <v>-0.044</v>
+        <v>-0.0563</v>
       </c>
       <c r="T135" t="n">
-        <v>-0.0481</v>
+        <v>-0.0513</v>
       </c>
       <c r="U135" t="n">
-        <v>-0.0504</v>
+        <v>-0.0506</v>
       </c>
       <c r="V135" t="n">
-        <v>-0.1048</v>
+        <v>-0.105</v>
       </c>
       <c r="W135" t="n">
-        <v>-6.302</v>
+        <v>-6.3047</v>
       </c>
     </row>
     <row r="136">
@@ -7559,7 +7559,7 @@
         <v>-0.3432</v>
       </c>
       <c r="N138" t="n">
-        <v>-0.1407</v>
+        <v>-0.1408</v>
       </c>
       <c r="O138"/>
       <c r="P138"/>
@@ -7593,31 +7593,31 @@
       <c r="M139"/>
       <c r="N139"/>
       <c r="O139" t="n">
-        <v>-0.1034</v>
+        <v>-0.1035</v>
       </c>
       <c r="P139" t="n">
-        <v>-0.2904</v>
+        <v>-0.2906</v>
       </c>
       <c r="Q139" t="n">
-        <v>-0.2614</v>
+        <v>-0.2615</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.1046</v>
+        <v>-0.1048</v>
       </c>
       <c r="S139" t="n">
-        <v>-0.0568</v>
+        <v>-0.057</v>
       </c>
       <c r="T139" t="n">
-        <v>-0.0915</v>
+        <v>-0.0917</v>
       </c>
       <c r="U139" t="n">
-        <v>-0.0676</v>
+        <v>-0.0677</v>
       </c>
       <c r="V139" t="n">
-        <v>-0.0296</v>
+        <v>-0.0298</v>
       </c>
       <c r="W139" t="n">
-        <v>-0.0777</v>
+        <v>-0.0778</v>
       </c>
     </row>
     <row r="140">
@@ -7763,7 +7763,7 @@
         <v>0.5287</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1869</v>
+        <v>0.2312</v>
       </c>
       <c r="O142"/>
       <c r="P142"/>
@@ -7797,31 +7797,31 @@
       <c r="M143"/>
       <c r="N143"/>
       <c r="O143" t="n">
-        <v>-0.4043</v>
+        <v>-0.2678</v>
       </c>
       <c r="P143" t="n">
-        <v>-0.7993</v>
+        <v>-0.6669</v>
       </c>
       <c r="Q143" t="n">
-        <v>-0.6397</v>
+        <v>-0.4807</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.3742</v>
+        <v>-0.2571</v>
       </c>
       <c r="S143" t="n">
-        <v>-0.82</v>
+        <v>-0.8043</v>
       </c>
       <c r="T143" t="n">
-        <v>-0.8363</v>
+        <v>-0.8209</v>
       </c>
       <c r="U143" t="n">
-        <v>-0.5322</v>
+        <v>-0.5283</v>
       </c>
       <c r="V143" t="n">
-        <v>-0.3685</v>
+        <v>-0.3389</v>
       </c>
       <c r="W143" t="n">
-        <v>-50.6121</v>
+        <v>-50.7598</v>
       </c>
     </row>
     <row r="144">
@@ -7865,7 +7865,7 @@
         <v>27610.1</v>
       </c>
       <c r="N144" t="n">
-        <v>27944.6</v>
+        <v>27957</v>
       </c>
       <c r="O144"/>
       <c r="P144"/>
@@ -7899,31 +7899,31 @@
       <c r="M145"/>
       <c r="N145"/>
       <c r="O145" t="n">
-        <v>28264.1826</v>
+        <v>28276.7244</v>
       </c>
       <c r="P145" t="n">
-        <v>28601.9138</v>
+        <v>28614.6055</v>
       </c>
       <c r="Q145" t="n">
-        <v>28946.529</v>
+        <v>28959.3736</v>
       </c>
       <c r="R145" t="n">
-        <v>29303.3476</v>
+        <v>29316.3505</v>
       </c>
       <c r="S145" t="n">
-        <v>29666.9459</v>
+        <v>29680.1101</v>
       </c>
       <c r="T145" t="n">
-        <v>30021.887</v>
+        <v>30035.2088</v>
       </c>
       <c r="U145" t="n">
-        <v>30371.8216</v>
+        <v>30385.2987</v>
       </c>
       <c r="V145" t="n">
-        <v>30709.2399</v>
+        <v>30722.8667</v>
       </c>
       <c r="W145" t="n">
-        <v>31046.8669</v>
+        <v>31060.6435</v>
       </c>
     </row>
     <row r="146">
@@ -7967,7 +7967,7 @@
         <v>-0.3502</v>
       </c>
       <c r="N146" t="n">
-        <v>-0.2978</v>
+        <v>0.1455</v>
       </c>
       <c r="O146"/>
       <c r="P146"/>
@@ -8001,31 +8001,31 @@
       <c r="M147"/>
       <c r="N147"/>
       <c r="O147" t="n">
-        <v>-0.1183</v>
+        <v>-0.119</v>
       </c>
       <c r="P147" t="n">
-        <v>-0.3518</v>
+        <v>-0.3516</v>
       </c>
       <c r="Q147" t="n">
-        <v>-0.0102</v>
+        <v>-0.0106</v>
       </c>
       <c r="R147" t="n">
-        <v>0.0156</v>
+        <v>0.0153</v>
       </c>
       <c r="S147" t="n">
-        <v>-0.3044</v>
+        <v>-0.3047</v>
       </c>
       <c r="T147" t="n">
-        <v>-0.1891</v>
+        <v>-0.1895</v>
       </c>
       <c r="U147" t="n">
-        <v>-0.0358</v>
+        <v>-0.0363</v>
       </c>
       <c r="V147" t="n">
-        <v>-0.0869</v>
+        <v>-0.0874</v>
       </c>
       <c r="W147" t="n">
-        <v>-1.6968</v>
+        <v>-1.6966</v>
       </c>
     </row>
     <row r="148">
@@ -8211,16 +8211,16 @@
         <v>-0.1051</v>
       </c>
       <c r="Q151" t="n">
-        <v>-0.102</v>
+        <v>-0.1019</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.0999</v>
+        <v>-0.0998</v>
       </c>
       <c r="S151" t="n">
-        <v>-0.0968</v>
+        <v>-0.0967</v>
       </c>
       <c r="T151" t="n">
-        <v>-0.0938</v>
+        <v>-0.0937</v>
       </c>
       <c r="U151" t="n">
         <v>-0.001</v>
@@ -8375,7 +8375,7 @@
         <v>0.6465</v>
       </c>
       <c r="N154" t="n">
-        <v>0.6308</v>
+        <v>0.2484</v>
       </c>
       <c r="O154"/>
       <c r="P154"/>
@@ -8409,31 +8409,31 @@
       <c r="M155"/>
       <c r="N155"/>
       <c r="O155" t="n">
-        <v>0.0461</v>
+        <v>0.0996</v>
       </c>
       <c r="P155" t="n">
-        <v>0.3614</v>
+        <v>0.3612</v>
       </c>
       <c r="Q155" t="n">
-        <v>-0.065</v>
+        <v>-0.0437</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.0943</v>
+        <v>-0.0625</v>
       </c>
       <c r="S155" t="n">
-        <v>0.2326</v>
+        <v>0.2327</v>
       </c>
       <c r="T155" t="n">
-        <v>0.121</v>
+        <v>0.1212</v>
       </c>
       <c r="U155" t="n">
-        <v>-0.0294</v>
+        <v>-0.0292</v>
       </c>
       <c r="V155" t="n">
-        <v>0.0159</v>
+        <v>0.0161</v>
       </c>
       <c r="W155" t="n">
-        <v>-41.5341</v>
+        <v>-41.6959</v>
       </c>
     </row>
     <row r="156">
@@ -8477,7 +8477,7 @@
         <v>-0.0209</v>
       </c>
       <c r="N156" t="n">
-        <v>-0.018</v>
+        <v>-0.027</v>
       </c>
       <c r="O156"/>
       <c r="P156"/>
@@ -8511,31 +8511,31 @@
       <c r="M157"/>
       <c r="N157"/>
       <c r="O157" t="n">
-        <v>-0.0163</v>
+        <v>-0.016</v>
       </c>
       <c r="P157" t="n">
-        <v>-0.0125</v>
+        <v>-0.0121</v>
       </c>
       <c r="Q157" t="n">
-        <v>-0.005</v>
+        <v>-0.0046</v>
       </c>
       <c r="R157" t="n">
-        <v>0.0117</v>
+        <v>0.0121</v>
       </c>
       <c r="S157" t="n">
-        <v>0.0258</v>
+        <v>0.0263</v>
       </c>
       <c r="T157" t="n">
-        <v>0.0055</v>
+        <v>0.0059</v>
       </c>
       <c r="U157" t="n">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="V157" t="n">
-        <v>0.0106</v>
+        <v>0.011</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0154</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="158">
@@ -8579,7 +8579,7 @@
         <v>0.219</v>
       </c>
       <c r="N158" t="n">
-        <v>0.017</v>
+        <v>0.0574</v>
       </c>
       <c r="O158"/>
       <c r="P158"/>
@@ -8613,31 +8613,31 @@
       <c r="M159"/>
       <c r="N159"/>
       <c r="O159" t="n">
-        <v>0.0491</v>
+        <v>0.1506</v>
       </c>
       <c r="P159" t="n">
-        <v>-0.0678</v>
+        <v>0.0366</v>
       </c>
       <c r="Q159" t="n">
-        <v>-0.1386</v>
+        <v>-0.0311</v>
       </c>
       <c r="R159" t="n">
-        <v>0.0267</v>
+        <v>0.0947</v>
       </c>
       <c r="S159" t="n">
-        <v>-0.0564</v>
+        <v>-0.0475</v>
       </c>
       <c r="T159" t="n">
-        <v>-0.0342</v>
+        <v>-0.0287</v>
       </c>
       <c r="U159" t="n">
-        <v>-0.0129</v>
+        <v>-0.0114</v>
       </c>
       <c r="V159" t="n">
-        <v>-0.0064</v>
+        <v>-0.0048</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0002</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="160">
@@ -8681,7 +8681,7 @@
         <v>0.1954</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1982</v>
+        <v>0.1388</v>
       </c>
       <c r="O160"/>
       <c r="P160"/>
@@ -8715,31 +8715,31 @@
       <c r="M161"/>
       <c r="N161"/>
       <c r="O161" t="n">
-        <v>0.2155</v>
+        <v>0.1693</v>
       </c>
       <c r="P161" t="n">
-        <v>0.1739</v>
+        <v>0.163</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.1286</v>
+        <v>0.1135</v>
       </c>
       <c r="R161" t="n">
-        <v>0.0951</v>
+        <v>0.0774</v>
       </c>
       <c r="S161" t="n">
-        <v>0.0543</v>
+        <v>0.0358</v>
       </c>
       <c r="T161" t="n">
-        <v>-0.0199</v>
+        <v>-0.0382</v>
       </c>
       <c r="U161" t="n">
-        <v>0.0079</v>
+        <v>-0.0102</v>
       </c>
       <c r="V161" t="n">
-        <v>-0.0105</v>
+        <v>-0.0014</v>
       </c>
       <c r="W161" t="n">
-        <v>-0.0056</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="162">
@@ -8783,7 +8783,7 @@
         <v>0.0141</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0012</v>
+        <v>0.0016</v>
       </c>
       <c r="O162"/>
       <c r="P162"/>
@@ -9123,25 +9123,25 @@
       <c r="M169"/>
       <c r="N169"/>
       <c r="O169" t="n">
-        <v>-0.0011</v>
+        <v>-0.0013</v>
       </c>
       <c r="P169" t="n">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.0064</v>
+        <v>0.0061</v>
       </c>
       <c r="R169" t="n">
-        <v>0.006</v>
+        <v>0.0057</v>
       </c>
       <c r="S169" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="T169" t="n">
         <v>0.0061</v>
       </c>
-      <c r="T169" t="n">
-        <v>0.0062</v>
-      </c>
       <c r="U169" t="n">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
       <c r="V169" t="n">
         <v>0.0024</v>
